--- a/Interface Data Structure.xlsx
+++ b/Interface Data Structure.xlsx
@@ -8,13 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Course\Mobile Computing\Assignment\COMP90018-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D202F600-4C1D-4180-B46E-480F839C8A2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E0539-38AE-400C-86F7-898252B2CA47}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28605" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="AllTag" sheetId="4" r:id="rId3"/>
+    <sheet name="UpdateTag" sheetId="3" r:id="rId4"/>
+    <sheet name="MainPage" sheetId="5" r:id="rId5"/>
+    <sheet name="CreateActivity" sheetId="6" r:id="rId6"/>
+    <sheet name="JoinActivity" sheetId="11" r:id="rId7"/>
+    <sheet name="GetActivity" sheetId="8" r:id="rId8"/>
+    <sheet name="CreatePost" sheetId="7" r:id="rId9"/>
+    <sheet name="AnswerPost" sheetId="10" r:id="rId10"/>
+    <sheet name="GetPost" sheetId="9" r:id="rId11"/>
+    <sheet name="SearchActivity" sheetId="12" r:id="rId12"/>
+    <sheet name="SearchPost" sheetId="16" r:id="rId13"/>
+    <sheet name="UserActivity" sheetId="13" r:id="rId14"/>
+    <sheet name="UserPost" sheetId="14" r:id="rId15"/>
+    <sheet name="UserJoinActivity" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="123">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,19 +133,400 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post url: http://13.229.67.79:8080/studypartner/register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post url: http://13.229.67.79:8080/studypartner/logincheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userTags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>List&lt;Integer&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateTagRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateTagResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Tag&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Request Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNewUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true - new user false - old user  
+use by googleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/register</t>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/logincheck</t>
+  </si>
+  <si>
+    <t>get url: http://13.250.45.8:8080/studypartner/alltag</t>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/updatetag</t>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/mainpage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainPageRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainPageResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">activityLocation </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateActivityRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/createactivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateActivityResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/getactivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetActivityRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetActivityResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;User&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPhoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatePostRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/createPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatePostResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPostRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPostResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/answerpost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnswerPostRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnswerPostResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/joinactivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinActivityRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinActivityResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Answer&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchActivityRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/searchactivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchActivityResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Activity&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default: 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default: 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default: 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/userActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserActivityRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserActivityResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/searchPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchPostRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchPostResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Post&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserActivityResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post url: http://13.250.45.8:8080/studypartner/userjoinactivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserJoinActivityRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserJoinActivityResponse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,8 +570,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,48 +870,28 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -524,10 +902,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -535,65 +913,101 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -603,12 +1017,1125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609C79CF-6279-4105-8316-32A3CBC800C6}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28829E08-9E60-4718-AFBE-5C652A342AD9}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663E6BC3-8035-4E7E-B82B-FD6CA00B3C81}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D18006-359B-4966-A6A5-97F5E4FE9544}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490DEB73-AB89-4B77-BBF3-CE06F2B9CB6E}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB01086-609A-4291-A562-BA7D2DD47DDA}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA8C411-EC7C-448C-AE4D-4DF83DD8C211}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E6D4FE-3210-42C7-A614-F7FD9C1F90BB}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -620,59 +2147,549 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7946CA72-3B36-47D9-B03E-933ED31AF13E}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC954D7C-7FC4-4905-B2D5-81C28497FDA1}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D250DE-5444-4FBD-A8A7-34B3965F7D0D}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C521DD-7841-4D1A-80FC-84BB75D93D93}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A10:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110E32C5-1F8C-4D2C-A7F9-DF1EDC85D6E0}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -700,15 +2717,360 @@
         <v>5</v>
       </c>
     </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB5CDCC-35D6-481E-8D3F-990341E52EB1}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADB8F1B-13A3-4F89-91F6-D967937142D0}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Interface Data Structure.xlsx
+++ b/Interface Data Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Course\Mobile Computing\Assignment\COMP90018-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082381B-99F0-4979-827E-398AABE7CFD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A93FFA-39DC-4F97-9EEB-DC89C6F4BB56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="0" windowWidth="17085" windowHeight="15600" tabRatio="947" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="947" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="17" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="168">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,6 +680,34 @@
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1039,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,6 +1088,9 @@
       <c r="A6" t="s">
         <v>120</v>
       </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1073,10 +1104,16 @@
       <c r="A8" t="s">
         <v>122</v>
       </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,7 +1167,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1380,9 +1417,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28829E08-9E60-4718-AFBE-5C652A342AD9}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1529,39 +1568,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>87</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -1569,34 +1608,23 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2839,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C521DD-7841-4D1A-80FC-84BB75D93D93}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3139,10 +3167,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB5CDCC-35D6-481E-8D3F-990341E52EB1}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3315,46 +3343,69 @@
         <v>153</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
+        <v>164</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Interface Data Structure.xlsx
+++ b/Interface Data Structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Course\Mobile Computing\Assignment\COMP90018-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A93FFA-39DC-4F97-9EEB-DC89C6F4BB56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCD5683-3B33-4694-860B-F4D4CB447B31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="947" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="17" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="170">
   <si>
     <t>RegisterRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -708,6 +708,14 @@
   </si>
   <si>
     <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(without test geo things)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531B8CE0-01EA-4C1C-B3FD-B599A6BE39E8}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1047,7 +1055,7 @@
     <col min="1" max="1" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1079,12 +1087,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -1100,7 +1108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -1108,7 +1116,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -1124,22 +1132,37 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -1147,7 +1170,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -1167,7 +1190,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1419,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28829E08-9E60-4718-AFBE-5C652A342AD9}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1638,7 +1661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663E6BC3-8035-4E7E-B82B-FD6CA00B3C81}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1824,6 +1849,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1831,9 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D18006-359B-4966-A6A5-97F5E4FE9544}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
